--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\datafusion-pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\classes\5110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8F9CE2-9C3D-45E7-85E8-9AC56AF671C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D645E2E-06FC-4BAA-824A-11FC8BE6ED94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>OVERALL PROGRESS</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
   <si>
     <t>TASK NAME</t>
@@ -100,16 +97,10 @@
     <t>The goal of this project is to develop a data integration pipeline to combine data frommultiple sources into a unified format</t>
   </si>
   <si>
-    <t>This project should be capable of handling both structured and unstructured data in various formats, including JSON, XML, and YAML. It should also support image processing and allow transformations based on the user’s requirements. Users should be able to define rules for the provided data and reuse these rules to process similar data. The system should clean and transform the data, converting it into a unified format based on the user’s choice. If time permits, the project should be made scalable to handle data from big data sources, including real-time Change Data Capture (CDC) events.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Planning and Analysis </t>
   </si>
   <si>
     <t>Basic data ingestion</t>
-  </si>
-  <si>
-    <t>Add image processing capabilities</t>
   </si>
   <si>
     <t xml:space="preserve">Implement rule-based system </t>
@@ -118,7 +109,10 @@
     <t>Implement unified format conversion</t>
   </si>
   <si>
-    <t>Big data integration</t>
+    <t>Environment Setup</t>
+  </si>
+  <si>
+    <t>Project scope encompasses data ingestion from external sources (Kaggle and GitHub repositories), real-time stream processing, rule-based data transformations, dataframe fusion capabilities, and flexible output destinations.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR80"/>
+  <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G80"/>
+      <selection activeCell="B23" sqref="B23:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -757,12 +752,12 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -855,7 +850,7 @@
     </row>
     <row r="5" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -949,9 +944,9 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" spans="1:44" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1052,8 +1047,8 @@
       <c r="B9" s="9">
         <v>45908</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
+      <c r="C9" s="23">
+        <v>1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1095,10 +1090,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1107,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1155,10 +1150,10 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8">
         <v>45817</v>
@@ -1170,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="12"/>
@@ -1213,10 +1208,10 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
         <v>45818</v>
@@ -1228,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="12"/>
@@ -1271,10 +1266,10 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8">
         <v>45819</v>
@@ -1286,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="12"/>
@@ -1329,10 +1324,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8">
         <v>45821</v>
@@ -1343,8 +1338,8 @@
       <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="12"/>
@@ -1387,22 +1382,22 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8">
+        <v>45823</v>
+      </c>
+      <c r="D15" s="8">
         <v>45824</v>
       </c>
-      <c r="D15" s="8">
-        <v>45830</v>
-      </c>
       <c r="E15" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="12"/>
@@ -1445,22 +1440,22 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="8">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="D16" s="8">
-        <v>45837</v>
+        <v>45830</v>
       </c>
       <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="12"/>
@@ -1503,22 +1498,22 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8">
         <v>45838</v>
       </c>
       <c r="D17" s="8">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="E17" s="4">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="12"/>
@@ -1561,22 +1556,22 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8">
-        <v>45842</v>
+        <v>45840</v>
       </c>
       <c r="D18" s="8">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="12"/>
@@ -1619,21 +1614,23 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="D19" s="8">
         <v>45851</v>
       </c>
       <c r="E19" s="4">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
         <v>45852</v>
@@ -1689,8 +1686,8 @@
       <c r="E20" s="4">
         <v>7</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="12"/>
@@ -1733,10 +1730,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8">
         <v>45859</v>
@@ -1747,8 +1744,8 @@
       <c r="E21" s="4">
         <v>7</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="12"/>
@@ -1790,25 +1787,15 @@
       <c r="AR21" s="12"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45866</v>
-      </c>
-      <c r="D22" s="8">
-        <v>45878</v>
-      </c>
-      <c r="E22" s="4">
-        <v>13</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1848,15 +1835,15 @@
       <c r="AR22" s="12"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -1896,8 +1883,8 @@
       <c r="AR23" s="12"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
+      <c r="A24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1944,7 +1931,7 @@
       <c r="AR24" s="12"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="12"/>
@@ -1992,9 +1979,7 @@
       <c r="AR25" s="12"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3427,43 +3412,6 @@
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="12"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
@@ -3610,7 +3558,6 @@
       <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -3658,19 +3605,11 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H1:AR57"/>
-    <mergeCell ref="B24:G80"/>
-    <mergeCell ref="A27:A74"/>
+    <mergeCell ref="H1:AR56"/>
+    <mergeCell ref="B23:G79"/>
+    <mergeCell ref="A26:A73"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:G7"/>
